--- a/MeasurementsPart1.xlsx
+++ b/MeasurementsPart1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nir\eclipse-workspace\AVLTree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6BAA5-707D-4040-B8B9-A8BBCB12A390}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5493D7B-C29B-463D-86B2-81D8FCEAE55C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{99D15EFA-5B8D-4D00-8081-701A8C56529E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99D15EFA-5B8D-4D00-8081-701A8C56529E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1 (2)'!$A$1:$D$41</definedName>
@@ -68,10 +69,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,12 +101,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39FA354A-4D1E-42EC-B8E8-04F6B0B2582A}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -449,7 +494,7 @@
         <v>25063646</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -463,7 +508,7 @@
         <v>49995000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -477,7 +522,7 @@
         <v>100023653</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -491,7 +536,7 @@
         <v>199990000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -505,7 +550,7 @@
         <v>224839071</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -519,7 +564,7 @@
         <v>449985000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -533,7 +578,7 @@
         <v>401139380</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -547,7 +592,7 @@
         <v>799980000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -561,7 +606,7 @@
         <v>625021906</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -575,7 +620,7 @@
         <v>1249975000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -589,7 +634,7 @@
         <v>900795981</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -603,7 +648,7 @@
         <v>1799970000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -617,7 +662,7 @@
         <v>1225062394</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -631,7 +676,7 @@
         <v>2449965000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -645,7 +690,7 @@
         <v>1599255957</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -659,7 +704,7 @@
         <v>3199960000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -673,7 +718,7 @@
         <v>2032584245</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -687,7 +732,7 @@
         <v>4049955000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -701,7 +746,7 @@
         <v>2504360436</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -729,7 +774,7 @@
         <v>221782</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -757,7 +802,7 @@
         <v>480520</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -785,7 +830,7 @@
         <v>777310</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -813,7 +858,7 @@
         <v>1056505</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -841,7 +886,7 @@
         <v>1334497</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -869,7 +914,7 @@
         <v>1614641</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -897,7 +942,7 @@
         <v>1986235</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -925,7 +970,7 @@
         <v>2233915</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -953,7 +998,7 @@
         <v>2522302</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -981,7 +1026,7 @@
         <v>2885898</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -996,16 +1041,213 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D41" xr:uid="{5546D442-DAD8-4FA0-A634-41EAD8A430DA}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D41">
-      <sortCondition ref="A1:A41"/>
-    </sortState>
+  <autoFilter ref="A1:D41" xr:uid="{CDA1009B-1476-451A-B9C2-130BC7595B46}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AVL"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="rand:"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F36CB9E-5452-417A-B737-8BD43DA1FB14}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>10000</v>
+      </c>
+      <c r="B1" s="2">
+        <v>25063646</v>
+      </c>
+      <c r="C1" s="2">
+        <v>49995000</v>
+      </c>
+      <c r="D1" s="2">
+        <v>221782</v>
+      </c>
+      <c r="E1" s="2">
+        <v>231358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>20000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>100023653</v>
+      </c>
+      <c r="C2" s="4">
+        <v>199990000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>480520</v>
+      </c>
+      <c r="E2" s="4">
+        <v>502688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>30000</v>
+      </c>
+      <c r="B3" s="4">
+        <v>224839071</v>
+      </c>
+      <c r="C3" s="4">
+        <v>449985000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>777310</v>
+      </c>
+      <c r="E3" s="4">
+        <v>788113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>40000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>401139380</v>
+      </c>
+      <c r="C4" s="4">
+        <v>799980000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1056505</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1085346</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>50000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>625021906</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1249975000</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1334497</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1386195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>60000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>900795981</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1799970000</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1614641</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1696195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>70000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1225062394</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2449965000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1986235</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2010660</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>80000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1599255957</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3199960000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2233915</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2330660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>90000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2032584245</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4049955000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2522302</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2650660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>100000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2504360436</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4999950000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2885898</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2972357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21518521-8FDD-4159-9EAB-AF09B889614D}">
   <dimension ref="A1:E41"/>
   <sheetViews>
